--- a/input_data/USA/Filter_2012_Base.xlsx
+++ b/input_data/USA/Filter_2012_Base.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0CC0E0-A977-4DD0-987A-3D5730F44D5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE53DE-9085-41EA-A3DF-8F913DB5B2E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -2706,9 +2706,6 @@
     <t>S00900</t>
   </si>
   <si>
-    <t>Other buildungs</t>
-  </si>
-  <si>
     <t>Infrastructure</t>
   </si>
   <si>
@@ -2950,6 +2947,9 @@
   </si>
   <si>
     <t>EXIOBASE yield table (cells highlighted in blue are used)</t>
+  </si>
+  <si>
+    <t>Other buildings</t>
   </si>
 </sst>
 </file>
@@ -3337,12 +3337,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3353,6 +3347,12 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -3647,74 +3647,74 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>425</v>
       </c>
       <c r="D10" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>391</v>
       </c>
       <c r="D11" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>404</v>
       </c>
       <c r="D12" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>403</v>
       </c>
       <c r="D13" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>402</v>
       </c>
       <c r="D14" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -3722,12 +3722,12 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
@@ -3740,53 +3740,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB407"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="52.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="22"/>
+    <col min="2" max="2" width="52.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>395</v>
       </c>
       <c r="B1" t="s">
         <v>396</v>
       </c>
-      <c r="I1" s="55" t="s">
-        <v>834</v>
-      </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-    </row>
-    <row r="2" spans="1:28" ht="133.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="65" t="s">
+        <v>833</v>
+      </c>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+    </row>
+    <row r="2" spans="1:28" ht="128.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
+        <v>844</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>845</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>846</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>425</v>
@@ -3801,7 +3801,7 @@
         <v>403</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>402</v>
@@ -3813,13 +3813,13 @@
         <v>420</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>832</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>833</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>422</v>
@@ -3852,7 +3852,7 @@
         <v>400</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>394</v>
@@ -3861,13 +3861,13 @@
         <v>397</v>
       </c>
       <c r="AA2" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="AB2" s="27" t="s">
         <v>848</v>
       </c>
-      <c r="AB2" s="27" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>426</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H3" s="15">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>427</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>428</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>429</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>430</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>431</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>432</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>433</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>434</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>435</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>436</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>437</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>439</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>440</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>441</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>442</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>443</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -5451,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>444</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>445</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>446</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>447</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>448</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>449</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>450</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>451</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>452</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -6243,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>453</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>454</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>455</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>456</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>457</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>458</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>459</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>460</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>461</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>462</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -7123,7 +7123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>463</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -7211,7 +7211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>464</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -7299,7 +7299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>465</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>466</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>467</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>468</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -7651,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>469</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>470</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>471</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>472</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>473</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>474</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>475</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>476</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -8355,7 +8355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>477</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>478</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>479</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>480</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>481</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>482</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>483</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -8971,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>484</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>485</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -9147,7 +9147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>486</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>487</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -9323,7 +9323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>488</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -9411,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>489</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>490</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>491</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>492</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>493</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>494</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>495</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>496</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>497</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>498</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>499</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>500</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>501</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>502</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>503</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -10731,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>504</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>505</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>506</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>507</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>508</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>509</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>510</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>511</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>512</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>513</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>514</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>515</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>516</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>517</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>518</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>519</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>520</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>521</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>522</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>523</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>524</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -12579,7 +12579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>525</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -12667,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>526</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>527</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>528</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>529</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>530</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>531</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>532</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>533</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>534</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>535</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>536</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>537</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>538</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>539</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>540</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>541</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
@@ -14075,7 +14075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>542</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>543</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>544</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>545</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>546</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>547</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>548</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>549</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>550</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>551</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>552</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>553</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>554</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>555</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>556</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>557</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>558</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>559</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>560</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>561</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>562</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>563</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>564</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>565</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>566</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>567</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>568</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>569</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>570</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
@@ -16627,7 +16627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>571</v>
       </c>
@@ -16715,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>572</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>573</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>574</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>575</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>576</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>577</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>578</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>579</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>580</v>
       </c>
@@ -17507,7 +17507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>581</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>582</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>583</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>1</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H160" s="3">
         <v>0</v>
@@ -17771,7 +17771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>584</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>585</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>586</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>587</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>588</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>1</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H165" s="3">
         <v>0</v>
@@ -18211,7 +18211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>589</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>590</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>591</v>
       </c>
@@ -18475,7 +18475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>592</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>593</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>594</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>595</v>
       </c>
@@ -18827,7 +18827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>596</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>597</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>598</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>599</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>600</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>601</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>602</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>603</v>
       </c>
@@ -19531,7 +19531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>604</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>605</v>
       </c>
@@ -19707,7 +19707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>606</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>607</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>608</v>
       </c>
@@ -19971,7 +19971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>609</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H186" s="3">
         <v>0</v>
@@ -20059,7 +20059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>610</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>611</v>
       </c>
@@ -20235,7 +20235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>612</v>
       </c>
@@ -20323,7 +20323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>613</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>614</v>
       </c>
@@ -20499,7 +20499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>615</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>616</v>
       </c>
@@ -20675,7 +20675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>617</v>
       </c>
@@ -20763,7 +20763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>618</v>
       </c>
@@ -20851,7 +20851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>619</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>620</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>621</v>
       </c>
@@ -21115,7 +21115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>622</v>
       </c>
@@ -21203,7 +21203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>623</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>624</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>625</v>
       </c>
@@ -21467,7 +21467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>626</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>627</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>628</v>
       </c>
@@ -21731,7 +21731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>629</v>
       </c>
@@ -21819,7 +21819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>630</v>
       </c>
@@ -21907,7 +21907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>631</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>632</v>
       </c>
@@ -22083,7 +22083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>633</v>
       </c>
@@ -22171,7 +22171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>634</v>
       </c>
@@ -22259,7 +22259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>635</v>
       </c>
@@ -22347,7 +22347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>636</v>
       </c>
@@ -22435,7 +22435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>637</v>
       </c>
@@ -22523,7 +22523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>638</v>
       </c>
@@ -22611,7 +22611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>639</v>
       </c>
@@ -22699,7 +22699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>640</v>
       </c>
@@ -22787,7 +22787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>641</v>
       </c>
@@ -22875,7 +22875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>642</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>643</v>
       </c>
@@ -23051,7 +23051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>644</v>
       </c>
@@ -23139,7 +23139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>645</v>
       </c>
@@ -23227,7 +23227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>646</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>647</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>648</v>
       </c>
@@ -23491,7 +23491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>649</v>
       </c>
@@ -23579,7 +23579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>650</v>
       </c>
@@ -23667,7 +23667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>651</v>
       </c>
@@ -23755,7 +23755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>652</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>653</v>
       </c>
@@ -23863,7 +23863,7 @@
         <v>0</v>
       </c>
       <c r="G230" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H230" s="3">
         <v>0</v>
@@ -23931,7 +23931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>654</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>655</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="G232" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H232" s="3">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>656</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>657</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>658</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>659</v>
       </c>
@@ -24459,7 +24459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>660</v>
       </c>
@@ -24547,7 +24547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>661</v>
       </c>
@@ -24635,7 +24635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>662</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>1</v>
       </c>
       <c r="G239" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H239" s="3">
         <v>0</v>
@@ -24723,7 +24723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>663</v>
       </c>
@@ -24811,7 +24811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>664</v>
       </c>
@@ -24831,7 +24831,7 @@
         <v>0</v>
       </c>
       <c r="G241" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H241" s="3">
         <v>0</v>
@@ -24899,7 +24899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>665</v>
       </c>
@@ -24919,7 +24919,7 @@
         <v>1</v>
       </c>
       <c r="G242" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H242" s="3">
         <v>0</v>
@@ -24987,7 +24987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>666</v>
       </c>
@@ -25075,7 +25075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>667</v>
       </c>
@@ -25095,7 +25095,7 @@
         <v>1</v>
       </c>
       <c r="G244" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H244" s="3">
         <v>0</v>
@@ -25163,7 +25163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>668</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>669</v>
       </c>
@@ -25271,7 +25271,7 @@
         <v>1</v>
       </c>
       <c r="G246" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H246" s="3">
         <v>0</v>
@@ -25339,7 +25339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>670</v>
       </c>
@@ -25427,7 +25427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>671</v>
       </c>
@@ -25515,7 +25515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>672</v>
       </c>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="G249" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H249" s="3">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>673</v>
       </c>
@@ -25623,7 +25623,7 @@
         <v>1</v>
       </c>
       <c r="G250" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H250" s="3">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>674</v>
       </c>
@@ -25711,7 +25711,7 @@
         <v>1</v>
       </c>
       <c r="G251" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H251" s="3">
         <v>0</v>
@@ -25779,7 +25779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>675</v>
       </c>
@@ -25867,7 +25867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>676</v>
       </c>
@@ -25887,7 +25887,7 @@
         <v>1</v>
       </c>
       <c r="G253" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H253" s="3">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>677</v>
       </c>
@@ -25975,7 +25975,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H254" s="3">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>678</v>
       </c>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>679</v>
       </c>
@@ -26219,7 +26219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>680</v>
       </c>
@@ -26307,7 +26307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>681</v>
       </c>
@@ -26395,7 +26395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>682</v>
       </c>
@@ -26483,7 +26483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>683</v>
       </c>
@@ -26571,7 +26571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>684</v>
       </c>
@@ -26591,7 +26591,7 @@
         <v>1</v>
       </c>
       <c r="G261" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H261" s="3">
         <v>0</v>
@@ -26659,7 +26659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>685</v>
       </c>
@@ -26747,7 +26747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>686</v>
       </c>
@@ -26835,7 +26835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>687</v>
       </c>
@@ -26855,7 +26855,7 @@
         <v>1</v>
       </c>
       <c r="G264" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H264" s="3">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>688</v>
       </c>
@@ -26943,7 +26943,7 @@
         <v>1</v>
       </c>
       <c r="G265" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H265" s="3">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>689</v>
       </c>
@@ -27099,7 +27099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>690</v>
       </c>
@@ -27187,7 +27187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>691</v>
       </c>
@@ -27207,7 +27207,7 @@
         <v>0</v>
       </c>
       <c r="G268" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H268" s="3">
         <v>1</v>
@@ -27275,7 +27275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>692</v>
       </c>
@@ -27363,7 +27363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>693</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>694</v>
       </c>
@@ -27539,7 +27539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>695</v>
       </c>
@@ -27627,7 +27627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>696</v>
       </c>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>697</v>
       </c>
@@ -27803,7 +27803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>698</v>
       </c>
@@ -27891,7 +27891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>699</v>
       </c>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>700</v>
       </c>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>701</v>
       </c>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>702</v>
       </c>
@@ -28243,7 +28243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>703</v>
       </c>
@@ -28331,7 +28331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>704</v>
       </c>
@@ -28419,7 +28419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>705</v>
       </c>
@@ -28507,7 +28507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>706</v>
       </c>
@@ -28593,7 +28593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>707</v>
       </c>
@@ -28681,7 +28681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>708</v>
       </c>
@@ -28769,7 +28769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>709</v>
       </c>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>710</v>
       </c>
@@ -28945,7 +28945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>711</v>
       </c>
@@ -29033,7 +29033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>712</v>
       </c>
@@ -29121,7 +29121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>713</v>
       </c>
@@ -29209,7 +29209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>714</v>
       </c>
@@ -29297,7 +29297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>715</v>
       </c>
@@ -29385,7 +29385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>716</v>
       </c>
@@ -29473,7 +29473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>717</v>
       </c>
@@ -29561,7 +29561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>718</v>
       </c>
@@ -29649,7 +29649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>719</v>
       </c>
@@ -29737,7 +29737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>720</v>
       </c>
@@ -29825,7 +29825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>721</v>
       </c>
@@ -29913,7 +29913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>722</v>
       </c>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>723</v>
       </c>
@@ -30089,7 +30089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>724</v>
       </c>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>725</v>
       </c>
@@ -30265,7 +30265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>726</v>
       </c>
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>727</v>
       </c>
@@ -30441,7 +30441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>728</v>
       </c>
@@ -30529,7 +30529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>729</v>
       </c>
@@ -30617,7 +30617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>730</v>
       </c>
@@ -30705,7 +30705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>731</v>
       </c>
@@ -30793,7 +30793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>732</v>
       </c>
@@ -30881,7 +30881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>733</v>
       </c>
@@ -30969,7 +30969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>734</v>
       </c>
@@ -31057,7 +31057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>735</v>
       </c>
@@ -31145,7 +31145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>736</v>
       </c>
@@ -31233,7 +31233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>737</v>
       </c>
@@ -31321,7 +31321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>738</v>
       </c>
@@ -31409,7 +31409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>739</v>
       </c>
@@ -31497,7 +31497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>740</v>
       </c>
@@ -31585,7 +31585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>741</v>
       </c>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>742</v>
       </c>
@@ -31761,7 +31761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>743</v>
       </c>
@@ -31849,7 +31849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>744</v>
       </c>
@@ -31937,7 +31937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>745</v>
       </c>
@@ -32025,7 +32025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>746</v>
       </c>
@@ -32045,7 +32045,7 @@
         <v>0</v>
       </c>
       <c r="G323" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H323" s="3">
         <v>0</v>
@@ -32113,7 +32113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>747</v>
       </c>
@@ -32201,7 +32201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>748</v>
       </c>
@@ -32289,7 +32289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>749</v>
       </c>
@@ -32377,7 +32377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>750</v>
       </c>
@@ -32465,7 +32465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>751</v>
       </c>
@@ -32553,7 +32553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>752</v>
       </c>
@@ -32641,7 +32641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>753</v>
       </c>
@@ -32729,7 +32729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>754</v>
       </c>
@@ -32749,7 +32749,7 @@
         <v>0</v>
       </c>
       <c r="G331" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H331" s="3">
         <v>0</v>
@@ -32817,7 +32817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>755</v>
       </c>
@@ -32905,7 +32905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>756</v>
       </c>
@@ -32993,7 +32993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>757</v>
       </c>
@@ -33081,7 +33081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>758</v>
       </c>
@@ -33101,7 +33101,7 @@
         <v>0</v>
       </c>
       <c r="G335" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H335" s="3">
         <v>0</v>
@@ -33169,7 +33169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>759</v>
       </c>
@@ -33257,7 +33257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>760</v>
       </c>
@@ -33345,7 +33345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>761</v>
       </c>
@@ -33365,7 +33365,7 @@
         <v>0</v>
       </c>
       <c r="G338" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H338" s="3">
         <v>0</v>
@@ -33433,7 +33433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>762</v>
       </c>
@@ -33453,7 +33453,7 @@
         <v>0</v>
       </c>
       <c r="G339" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H339" s="3">
         <v>0</v>
@@ -33521,7 +33521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>763</v>
       </c>
@@ -33609,7 +33609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>764</v>
       </c>
@@ -33697,7 +33697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>765</v>
       </c>
@@ -33785,7 +33785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>766</v>
       </c>
@@ -33873,7 +33873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>767</v>
       </c>
@@ -33961,7 +33961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>768</v>
       </c>
@@ -33981,7 +33981,7 @@
         <v>0</v>
       </c>
       <c r="G345" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H345" s="3">
         <v>0</v>
@@ -34049,7 +34049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>769</v>
       </c>
@@ -34069,7 +34069,7 @@
         <v>0</v>
       </c>
       <c r="G346" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H346" s="3">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>770</v>
       </c>
@@ -34225,7 +34225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>771</v>
       </c>
@@ -34313,7 +34313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>772</v>
       </c>
@@ -34333,7 +34333,7 @@
         <v>0</v>
       </c>
       <c r="G349" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H349" s="3">
         <v>0</v>
@@ -34401,7 +34401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>773</v>
       </c>
@@ -34421,7 +34421,7 @@
         <v>0</v>
       </c>
       <c r="G350" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H350" s="3">
         <v>0</v>
@@ -34489,7 +34489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>774</v>
       </c>
@@ -34577,7 +34577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>775</v>
       </c>
@@ -34665,7 +34665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>776</v>
       </c>
@@ -34753,7 +34753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>777</v>
       </c>
@@ -34841,7 +34841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>778</v>
       </c>
@@ -34929,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>779</v>
       </c>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>780</v>
       </c>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>781</v>
       </c>
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>782</v>
       </c>
@@ -35281,7 +35281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>783</v>
       </c>
@@ -35369,7 +35369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>784</v>
       </c>
@@ -35457,7 +35457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>785</v>
       </c>
@@ -35545,7 +35545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>786</v>
       </c>
@@ -35633,7 +35633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>787</v>
       </c>
@@ -35721,7 +35721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>788</v>
       </c>
@@ -35809,7 +35809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>789</v>
       </c>
@@ -35897,7 +35897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>790</v>
       </c>
@@ -35985,7 +35985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>791</v>
       </c>
@@ -36073,7 +36073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>792</v>
       </c>
@@ -36161,7 +36161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>793</v>
       </c>
@@ -36249,7 +36249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>794</v>
       </c>
@@ -36337,7 +36337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>795</v>
       </c>
@@ -36425,7 +36425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>796</v>
       </c>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>797</v>
       </c>
@@ -36601,7 +36601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>798</v>
       </c>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>799</v>
       </c>
@@ -36777,7 +36777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>800</v>
       </c>
@@ -36865,7 +36865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>801</v>
       </c>
@@ -36953,7 +36953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>802</v>
       </c>
@@ -37041,7 +37041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>803</v>
       </c>
@@ -37129,7 +37129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>804</v>
       </c>
@@ -37217,7 +37217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>805</v>
       </c>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>806</v>
       </c>
@@ -37393,7 +37393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>807</v>
       </c>
@@ -37481,7 +37481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>808</v>
       </c>
@@ -37569,7 +37569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>809</v>
       </c>
@@ -37589,7 +37589,7 @@
         <v>0</v>
       </c>
       <c r="G386" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H386" s="3">
         <v>0</v>
@@ -37657,7 +37657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>810</v>
       </c>
@@ -37745,7 +37745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>811</v>
       </c>
@@ -37833,7 +37833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>812</v>
       </c>
@@ -37921,7 +37921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>813</v>
       </c>
@@ -38009,7 +38009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>814</v>
       </c>
@@ -38097,7 +38097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>815</v>
       </c>
@@ -38185,7 +38185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>816</v>
       </c>
@@ -38273,7 +38273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>817</v>
       </c>
@@ -38361,7 +38361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>818</v>
       </c>
@@ -38449,7 +38449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>819</v>
       </c>
@@ -38537,7 +38537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>820</v>
       </c>
@@ -38625,7 +38625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>821</v>
       </c>
@@ -38713,7 +38713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>822</v>
       </c>
@@ -38799,7 +38799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>823</v>
       </c>
@@ -38885,7 +38885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>824</v>
       </c>
@@ -38971,7 +38971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>825</v>
       </c>
@@ -39057,7 +39057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>826</v>
       </c>
@@ -39145,7 +39145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>827</v>
       </c>
@@ -39165,7 +39165,7 @@
         <v>0</v>
       </c>
       <c r="G404" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H404" s="3">
         <v>0</v>
@@ -39233,7 +39233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>828</v>
       </c>
@@ -39253,7 +39253,7 @@
         <v>0</v>
       </c>
       <c r="G405" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H405" s="3">
         <v>0</v>
@@ -39321,7 +39321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>829</v>
       </c>
@@ -39409,7 +39409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>830</v>
       </c>
@@ -39896,173 +39896,173 @@
   <dimension ref="A2:U54"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="20" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="20" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
-        <v>910</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D6" s="59" t="s">
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="56" t="s">
+        <v>909</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="55" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D6" s="57" t="s">
+        <v>858</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>859</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="F6" s="57" t="s">
+        <v>849</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>853</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>862</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>863</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>866</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="O6" s="57" t="s">
+        <v>869</v>
+      </c>
+      <c r="P6" s="57" t="s">
+        <v>851</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D7" s="57" t="s">
         <v>860</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="E7" s="57" t="s">
+        <v>861</v>
+      </c>
+      <c r="F7" s="57" t="s">
         <v>850</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G7" s="57" t="s">
         <v>854</v>
       </c>
-      <c r="H6" s="59" t="s">
-        <v>863</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>864</v>
-      </c>
-      <c r="J6" s="59" t="s">
-        <v>865</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>866</v>
-      </c>
-      <c r="L6" s="59" t="s">
-        <v>867</v>
-      </c>
-      <c r="M6" s="59" t="s">
-        <v>868</v>
-      </c>
-      <c r="N6" s="59" t="s">
-        <v>869</v>
-      </c>
-      <c r="O6" s="59" t="s">
+      <c r="H7" s="57" t="s">
         <v>870</v>
       </c>
-      <c r="P6" s="59" t="s">
+      <c r="I7" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>872</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>873</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>874</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>875</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>876</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>877</v>
+      </c>
+      <c r="P7" s="57" t="s">
         <v>852</v>
       </c>
-      <c r="Q6" s="38" t="s">
+      <c r="Q7" s="38" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="59" t="s">
-        <v>861</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>862</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>851</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>855</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>871</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>872</v>
-      </c>
-      <c r="J7" s="59" t="s">
-        <v>873</v>
-      </c>
-      <c r="K7" s="59" t="s">
-        <v>874</v>
-      </c>
-      <c r="L7" s="59" t="s">
-        <v>875</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>876</v>
-      </c>
-      <c r="N7" s="59" t="s">
-        <v>877</v>
-      </c>
-      <c r="O7" s="59" t="s">
-        <v>878</v>
-      </c>
-      <c r="P7" s="59" t="s">
-        <v>853</v>
-      </c>
-      <c r="Q7" s="38" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
+        <v>849</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>850</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>851</v>
-      </c>
-      <c r="D8" s="64">
-        <v>0</v>
-      </c>
-      <c r="E8" s="65">
-        <v>0</v>
-      </c>
-      <c r="F8" s="65">
+      <c r="D8" s="62">
+        <v>0</v>
+      </c>
+      <c r="E8" s="63">
+        <v>0</v>
+      </c>
+      <c r="F8" s="63">
         <v>0.85</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="63">
         <v>0.6</v>
       </c>
-      <c r="H8" s="65">
-        <v>0</v>
-      </c>
-      <c r="I8" s="65">
-        <v>0</v>
-      </c>
-      <c r="J8" s="65">
-        <v>0</v>
-      </c>
-      <c r="K8" s="65">
-        <v>0</v>
-      </c>
-      <c r="L8" s="65">
-        <v>0</v>
-      </c>
-      <c r="M8" s="65">
-        <v>0</v>
-      </c>
-      <c r="N8" s="65">
-        <v>0</v>
-      </c>
-      <c r="O8" s="65">
-        <v>0</v>
-      </c>
-      <c r="P8" s="61">
+      <c r="H8" s="63">
+        <v>0</v>
+      </c>
+      <c r="I8" s="63">
+        <v>0</v>
+      </c>
+      <c r="J8" s="63">
+        <v>0</v>
+      </c>
+      <c r="K8" s="63">
+        <v>0</v>
+      </c>
+      <c r="L8" s="63">
+        <v>0</v>
+      </c>
+      <c r="M8" s="63">
+        <v>0</v>
+      </c>
+      <c r="N8" s="63">
+        <v>0</v>
+      </c>
+      <c r="O8" s="63">
+        <v>0</v>
+      </c>
+      <c r="P8" s="59">
         <v>0.7</v>
       </c>
-      <c r="Q8" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="38" t="s">
+        <v>856</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>857</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>858</v>
-      </c>
-      <c r="D9" s="62">
+      <c r="D9" s="60">
         <v>0.85</v>
       </c>
       <c r="E9" s="50">
@@ -40077,13 +40077,13 @@
       <c r="H9" s="50">
         <v>0</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="58">
         <v>0.8</v>
       </c>
       <c r="J9" s="50">
         <v>0.8</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="58">
         <v>0.8</v>
       </c>
       <c r="L9" s="50">
@@ -40092,26 +40092,26 @@
       <c r="M9" s="50">
         <v>0.8</v>
       </c>
-      <c r="N9" s="60">
+      <c r="N9" s="58">
         <v>0.8</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="58">
         <v>0.8</v>
       </c>
-      <c r="P9" s="60">
+      <c r="P9" s="58">
         <v>0.7</v>
       </c>
       <c r="Q9" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="38" t="s">
+        <v>878</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>879</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>880</v>
-      </c>
       <c r="D10" s="51">
         <v>0</v>
       </c>
@@ -40127,13 +40127,13 @@
       <c r="H10" s="50">
         <v>0</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="58">
         <v>0.8</v>
       </c>
       <c r="J10" s="50">
         <v>0.8</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="58">
         <v>0.8</v>
       </c>
       <c r="L10" s="50">
@@ -40142,26 +40142,26 @@
       <c r="M10" s="50">
         <v>0.8</v>
       </c>
-      <c r="N10" s="60">
+      <c r="N10" s="58">
         <v>0.8</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="58">
         <v>0.8</v>
       </c>
-      <c r="P10" s="60">
+      <c r="P10" s="58">
         <v>0.7</v>
       </c>
       <c r="Q10" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="38" t="s">
+        <v>880</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>881</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>882</v>
-      </c>
       <c r="D11" s="51">
         <v>0</v>
       </c>
@@ -40177,13 +40177,13 @@
       <c r="H11" s="50">
         <v>0</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="58">
         <v>0.8</v>
       </c>
       <c r="J11" s="50">
         <v>0.8</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="58">
         <v>0.8</v>
       </c>
       <c r="L11" s="50">
@@ -40192,25 +40192,25 @@
       <c r="M11" s="50">
         <v>0.8</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="58">
         <v>0.8</v>
       </c>
-      <c r="O11" s="60">
+      <c r="O11" s="58">
         <v>0.8</v>
       </c>
-      <c r="P11" s="60">
+      <c r="P11" s="58">
         <v>0.7</v>
       </c>
       <c r="Q11" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="38" t="s">
+        <v>882</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>883</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>884</v>
       </c>
       <c r="D12" s="51">
         <v>0</v>
@@ -40255,15 +40255,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D13" s="51">
         <v>0</v>
@@ -40280,13 +40280,13 @@
       <c r="H13" s="50">
         <v>0.92631909366008403</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="58">
         <v>0.86927271702207298</v>
       </c>
       <c r="J13" s="50">
         <v>0.89004126278255302</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="58">
         <v>0.87138156437019998</v>
       </c>
       <c r="L13" s="50">
@@ -40295,28 +40295,28 @@
       <c r="M13" s="50">
         <v>0.88129071613306198</v>
       </c>
-      <c r="N13" s="60">
+      <c r="N13" s="58">
         <v>0.81809329894973004</v>
       </c>
-      <c r="O13" s="60">
+      <c r="O13" s="58">
         <v>0.89771421948548102</v>
       </c>
-      <c r="P13" s="60">
+      <c r="P13" s="58">
         <v>0.95978881465296295</v>
       </c>
-      <c r="Q13" s="63">
+      <c r="Q13" s="61">
         <v>0.94166040230902204</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D14" s="51">
         <v>0</v>
@@ -40361,15 +40361,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D15" s="51">
         <v>0</v>
@@ -40386,13 +40386,13 @@
       <c r="H15" s="50">
         <v>0.98800605724956503</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="58">
         <v>0.99877498740551296</v>
       </c>
       <c r="J15" s="50">
         <v>1</v>
       </c>
-      <c r="K15" s="60">
+      <c r="K15" s="58">
         <v>1</v>
       </c>
       <c r="L15" s="50">
@@ -40401,28 +40401,28 @@
       <c r="M15" s="50">
         <v>1</v>
       </c>
-      <c r="N15" s="60">
-        <v>1</v>
-      </c>
-      <c r="O15" s="60">
+      <c r="N15" s="58">
+        <v>1</v>
+      </c>
+      <c r="O15" s="58">
         <v>0.999156412809172</v>
       </c>
-      <c r="P15" s="60">
+      <c r="P15" s="58">
         <v>0.98009206796423698</v>
       </c>
-      <c r="Q15" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q15" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D16" s="51">
         <v>0</v>
@@ -40439,13 +40439,13 @@
       <c r="H16" s="50">
         <v>0.93196078849751895</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="58">
         <v>0.90542002153861501</v>
       </c>
       <c r="J16" s="50">
         <v>0.92506224740253995</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="58">
         <v>0.91188541832382797</v>
       </c>
       <c r="L16" s="50">
@@ -40454,28 +40454,28 @@
       <c r="M16" s="50">
         <v>0.92480067633781304</v>
       </c>
-      <c r="N16" s="60">
+      <c r="N16" s="58">
         <v>0.81225200582322299</v>
       </c>
-      <c r="O16" s="60">
+      <c r="O16" s="58">
         <v>0.90874200468859301</v>
       </c>
-      <c r="P16" s="60">
+      <c r="P16" s="58">
         <v>0.98460249995958704</v>
       </c>
-      <c r="Q16" s="63">
+      <c r="Q16" s="61">
         <v>0.95200977870694903</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D17" s="51">
         <v>0</v>
@@ -40492,13 +40492,13 @@
       <c r="H17" s="50">
         <v>0.99766367004677803</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="58">
         <v>0.99959212142745102</v>
       </c>
       <c r="J17" s="50">
         <v>1</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="58">
         <v>1</v>
       </c>
       <c r="L17" s="50">
@@ -40507,28 +40507,28 @@
       <c r="M17" s="50">
         <v>0.99987357745073902</v>
       </c>
-      <c r="N17" s="60">
-        <v>1</v>
-      </c>
-      <c r="O17" s="60">
-        <v>1</v>
-      </c>
-      <c r="P17" s="60">
+      <c r="N17" s="58">
+        <v>1</v>
+      </c>
+      <c r="O17" s="58">
+        <v>1</v>
+      </c>
+      <c r="P17" s="58">
         <v>0.99517688048449904</v>
       </c>
-      <c r="Q17" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D18" s="51">
         <v>0</v>
@@ -40545,13 +40545,13 @@
       <c r="H18" s="50">
         <v>0.99990715571585498</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="58">
         <v>0.99996338425751496</v>
       </c>
       <c r="J18" s="50">
         <v>0.999829857254386</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K18" s="58">
         <v>0.99949496003205796</v>
       </c>
       <c r="L18" s="50">
@@ -40560,28 +40560,28 @@
       <c r="M18" s="50">
         <v>0.99969184027675295</v>
       </c>
-      <c r="N18" s="60">
+      <c r="N18" s="58">
         <v>0.99974574415004602</v>
       </c>
-      <c r="O18" s="60">
+      <c r="O18" s="58">
         <v>0.99996712399807097</v>
       </c>
-      <c r="P18" s="60">
+      <c r="P18" s="58">
         <v>0.99992430312491298</v>
       </c>
-      <c r="Q18" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D19" s="51">
         <v>0</v>
@@ -40626,15 +40626,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D20" s="51">
         <v>0</v>
@@ -40679,7 +40679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -40700,15 +40700,15 @@
       <c r="P21" s="50"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D22" s="48">
         <v>0</v>
@@ -40753,15 +40753,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D23" s="48">
         <v>0</v>
@@ -40806,15 +40806,15 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D24" s="48">
         <v>0</v>
@@ -40859,15 +40859,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D25" s="48">
         <v>0</v>
@@ -40912,15 +40912,15 @@
         <v>0.94234466577596099</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D26" s="48">
         <v>0</v>
@@ -40965,15 +40965,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D27" s="48">
         <v>0</v>
@@ -41018,15 +41018,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D28" s="48">
         <v>0</v>
@@ -41071,16 +41071,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29" s="38" t="s">
+        <v>851</v>
+      </c>
+      <c r="C29" s="38" t="s">
         <v>852</v>
       </c>
-      <c r="C29" s="38" t="s">
-        <v>853</v>
-      </c>
       <c r="D29" s="52">
         <v>0</v>
       </c>
@@ -41124,32 +41124,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="P30" s="29"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="57" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D34" s="56" t="s">
-        <v>905</v>
-      </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
+    <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="55" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D34" s="66" t="s">
+        <v>904</v>
+      </c>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
       <c r="I34" t="s">
         <v>422</v>
       </c>
@@ -41162,18 +41162,18 @@
       <c r="L34" t="s">
         <v>393</v>
       </c>
-      <c r="M34" s="56" t="s">
-        <v>906</v>
-      </c>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
+      <c r="M34" s="66" t="s">
+        <v>905</v>
+      </c>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
       <c r="Q34" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D35" t="s">
         <v>419</v>
@@ -41182,13 +41182,13 @@
         <v>420</v>
       </c>
       <c r="F35" t="s">
+        <v>912</v>
+      </c>
+      <c r="G35" t="s">
         <v>831</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>832</v>
-      </c>
-      <c r="H35" t="s">
-        <v>833</v>
       </c>
       <c r="I35" t="s">
         <v>422</v>
@@ -41221,7 +41221,7 @@
         <v>400</v>
       </c>
       <c r="S35" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="T35" t="s">
         <v>394</v>
@@ -41230,9 +41230,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B36" t="s">
         <v>462</v>
@@ -41250,7 +41250,7 @@
       <c r="K36" s="40"/>
       <c r="L36" s="40"/>
       <c r="M36" s="40">
-        <f t="shared" ref="M36:O39" si="0">$P$8</f>
+        <f t="shared" ref="M36:O38" si="0">$P$8</f>
         <v>0.7</v>
       </c>
       <c r="N36" s="40">
@@ -41268,9 +41268,9 @@
       <c r="T36" s="40"/>
       <c r="U36" s="41"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B37" t="s">
         <v>463</v>
@@ -41306,9 +41306,9 @@
       <c r="T37" s="43"/>
       <c r="U37" s="44"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B38" t="s">
         <v>464</v>
@@ -41344,9 +41344,9 @@
       <c r="T38" s="43"/>
       <c r="U38" s="44"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B39" t="s">
         <v>465</v>
@@ -41382,9 +41382,9 @@
       <c r="T39" s="43"/>
       <c r="U39" s="44"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B40" t="s">
         <v>467</v>
@@ -41432,9 +41432,9 @@
       <c r="T40" s="43"/>
       <c r="U40" s="44"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B41" t="s">
         <v>478</v>
@@ -41479,15 +41479,15 @@
         <v>0.89771421948548102</v>
       </c>
       <c r="M41" s="43">
-        <f>$P$13</f>
+        <f t="shared" ref="M41:O42" si="1">$P$13</f>
         <v>0.95978881465296295</v>
       </c>
       <c r="N41" s="43">
-        <f>$P$13</f>
+        <f t="shared" si="1"/>
         <v>0.95978881465296295</v>
       </c>
       <c r="O41" s="43">
-        <f>$P$13</f>
+        <f t="shared" si="1"/>
         <v>0.95978881465296295</v>
       </c>
       <c r="P41" s="43"/>
@@ -41497,9 +41497,9 @@
       <c r="T41" s="43"/>
       <c r="U41" s="44"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B42" t="s">
         <v>479</v>
@@ -41512,15 +41512,15 @@
         <v>0.94166040230902204</v>
       </c>
       <c r="E42" s="43">
-        <f t="shared" ref="E42:G42" si="1">$Q$13</f>
+        <f t="shared" ref="E42:G42" si="2">$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
       <c r="F42" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94166040230902204</v>
       </c>
       <c r="G42" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94166040230902204</v>
       </c>
       <c r="H42" s="43">
@@ -41544,15 +41544,15 @@
         <v>0.89771421948548102</v>
       </c>
       <c r="M42" s="43">
-        <f>$P$13</f>
+        <f t="shared" si="1"/>
         <v>0.95978881465296295</v>
       </c>
       <c r="N42" s="43">
-        <f>$P$13</f>
+        <f t="shared" si="1"/>
         <v>0.95978881465296295</v>
       </c>
       <c r="O42" s="43">
-        <f>$P$13</f>
+        <f t="shared" si="1"/>
         <v>0.95978881465296295</v>
       </c>
       <c r="P42" s="43"/>
@@ -41562,9 +41562,9 @@
       <c r="T42" s="43"/>
       <c r="U42" s="44"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B43" t="s">
         <v>480</v>
@@ -41577,11 +41577,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="43">
-        <f t="shared" ref="E43:H44" si="2">$Q$15</f>
+        <f t="shared" ref="E43:H44" si="3">$Q$15</f>
         <v>1</v>
       </c>
       <c r="F43" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G43" s="43">
@@ -41627,9 +41627,9 @@
       <c r="T43" s="43"/>
       <c r="U43" s="44"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B44" t="s">
         <v>481</v>
@@ -41642,19 +41642,19 @@
         <v>1</v>
       </c>
       <c r="E44" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F44" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G44" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H44" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I44" s="43">
@@ -41682,7 +41682,7 @@
         <v>0.98009206796423698</v>
       </c>
       <c r="O44" s="43">
-        <f t="shared" ref="M43:O44" si="3">$P$15</f>
+        <f t="shared" ref="O44" si="4">$P$15</f>
         <v>0.98009206796423698</v>
       </c>
       <c r="P44" s="43"/>
@@ -41692,9 +41692,9 @@
       <c r="T44" s="43"/>
       <c r="U44" s="44"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B45" t="s">
         <v>482</v>
@@ -41707,15 +41707,15 @@
         <v>0.95200977870694903</v>
       </c>
       <c r="E45" s="43">
-        <f t="shared" ref="E45:G45" si="4">$Q$16</f>
+        <f t="shared" ref="E45:G45" si="5">$Q$16</f>
         <v>0.95200977870694903</v>
       </c>
       <c r="F45" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95200977870694903</v>
       </c>
       <c r="G45" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95200977870694903</v>
       </c>
       <c r="H45" s="43">
@@ -41757,9 +41757,9 @@
       <c r="T45" s="43"/>
       <c r="U45" s="44"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B46" t="s">
         <v>483</v>
@@ -41776,11 +41776,11 @@
         <v>1</v>
       </c>
       <c r="F46" s="43">
-        <f t="shared" ref="F46:G46" si="5">$Q$17</f>
+        <f t="shared" ref="F46:G46" si="6">$Q$17</f>
         <v>1</v>
       </c>
       <c r="G46" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H46" s="43">
@@ -41822,9 +41822,9 @@
       <c r="T46" s="43"/>
       <c r="U46" s="44"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B47" t="s">
         <v>484</v>
@@ -41837,11 +41837,11 @@
         <v>1</v>
       </c>
       <c r="E47" s="43">
-        <f t="shared" ref="E47:F47" si="6">$Q$18</f>
+        <f t="shared" ref="E47:F47" si="7">$Q$18</f>
         <v>1</v>
       </c>
       <c r="F47" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G47" s="43">
@@ -41887,9 +41887,9 @@
       <c r="T47" s="43"/>
       <c r="U47" s="44"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B48" t="s">
         <v>485</v>
@@ -41902,15 +41902,15 @@
         <v>0.94166040230902204</v>
       </c>
       <c r="E48" s="43">
-        <f t="shared" ref="E48:G48" si="7">$Q$13</f>
+        <f t="shared" ref="E48:G48" si="8">$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
       <c r="F48" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.94166040230902204</v>
       </c>
       <c r="G48" s="43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.94166040230902204</v>
       </c>
       <c r="H48" s="43">
@@ -41942,7 +41942,7 @@
         <v>0.95978881465296295</v>
       </c>
       <c r="O48" s="43">
-        <f t="shared" ref="O48" si="8">$P$13</f>
+        <f t="shared" ref="O48" si="9">$P$13</f>
         <v>0.95978881465296295</v>
       </c>
       <c r="P48" s="43"/>
@@ -41952,9 +41952,9 @@
       <c r="T48" s="43"/>
       <c r="U48" s="44"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B49" t="s">
         <v>486</v>
@@ -41967,15 +41967,15 @@
         <v>1</v>
       </c>
       <c r="E49" s="43">
-        <f t="shared" ref="E49:G49" si="9">$Q$18</f>
+        <f t="shared" ref="E49:G49" si="10">$Q$18</f>
         <v>1</v>
       </c>
       <c r="F49" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G49" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H49" s="43">
@@ -42017,9 +42017,9 @@
       <c r="T49" s="43"/>
       <c r="U49" s="44"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B50" t="s">
         <v>487</v>
@@ -42032,15 +42032,15 @@
         <v>0.94166040230902204</v>
       </c>
       <c r="E50" s="43">
-        <f t="shared" ref="E50:G50" si="10">$Q$13</f>
+        <f t="shared" ref="E50:G50" si="11">$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
       <c r="F50" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94166040230902204</v>
       </c>
       <c r="G50" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94166040230902204</v>
       </c>
       <c r="H50" s="43">
@@ -42072,7 +42072,7 @@
         <v>0.95978881465296295</v>
       </c>
       <c r="O50" s="43">
-        <f t="shared" ref="O50:O52" si="11">$P$13</f>
+        <f t="shared" ref="O50:O52" si="12">$P$13</f>
         <v>0.95978881465296295</v>
       </c>
       <c r="P50" s="43"/>
@@ -42082,9 +42082,9 @@
       <c r="T50" s="43"/>
       <c r="U50" s="44"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B51" t="s">
         <v>488</v>
@@ -42097,47 +42097,47 @@
         <v>0.94166040230902204</v>
       </c>
       <c r="E51" s="43">
-        <f t="shared" ref="D51:H52" si="12">$Q$13</f>
+        <f t="shared" ref="E51:H52" si="13">$Q$13</f>
         <v>0.94166040230902204</v>
       </c>
       <c r="F51" s="43">
+        <f t="shared" si="13"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G51" s="43">
+        <f t="shared" si="13"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H51" s="43">
+        <f t="shared" si="13"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I51" s="43">
+        <f t="shared" ref="I51:I52" si="14">$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J51" s="43">
+        <f t="shared" ref="J51:J52" si="15">$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K51" s="43">
+        <f t="shared" ref="K51:K52" si="16">$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L51" s="43">
+        <f t="shared" ref="L51:L52" si="17">$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M51" s="43">
+        <f t="shared" ref="M51:N52" si="18">$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N51" s="43">
+        <f t="shared" si="18"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O51" s="43">
         <f t="shared" si="12"/>
-        <v>0.94166040230902204</v>
-      </c>
-      <c r="G51" s="43">
-        <f t="shared" si="12"/>
-        <v>0.94166040230902204</v>
-      </c>
-      <c r="H51" s="43">
-        <f t="shared" si="12"/>
-        <v>0.94166040230902204</v>
-      </c>
-      <c r="I51" s="43">
-        <f t="shared" ref="I51:I52" si="13">$K$13</f>
-        <v>0.87138156437019998</v>
-      </c>
-      <c r="J51" s="43">
-        <f t="shared" ref="J51:J52" si="14">$I$13</f>
-        <v>0.86927271702207298</v>
-      </c>
-      <c r="K51" s="43">
-        <f t="shared" ref="K51:K52" si="15">$N$13</f>
-        <v>0.81809329894973004</v>
-      </c>
-      <c r="L51" s="43">
-        <f t="shared" ref="L51:L52" si="16">$O$13</f>
-        <v>0.89771421948548102</v>
-      </c>
-      <c r="M51" s="43">
-        <f t="shared" ref="M51:N52" si="17">$P$13</f>
-        <v>0.95978881465296295</v>
-      </c>
-      <c r="N51" s="43">
-        <f t="shared" si="17"/>
-        <v>0.95978881465296295</v>
-      </c>
-      <c r="O51" s="43">
-        <f t="shared" si="11"/>
         <v>0.95978881465296295</v>
       </c>
       <c r="P51" s="43"/>
@@ -42147,9 +42147,9 @@
       <c r="T51" s="43"/>
       <c r="U51" s="44"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B52" t="s">
         <v>489</v>
@@ -42162,47 +42162,47 @@
         <v>0.94166040230902204</v>
       </c>
       <c r="E52" s="43">
+        <f t="shared" si="13"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F52" s="43">
+        <f t="shared" si="13"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G52" s="43">
+        <f t="shared" si="13"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H52" s="43">
+        <f t="shared" si="13"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I52" s="43">
+        <f t="shared" si="14"/>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J52" s="43">
+        <f t="shared" si="15"/>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K52" s="43">
+        <f t="shared" si="16"/>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L52" s="43">
+        <f t="shared" si="17"/>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M52" s="43">
+        <f t="shared" si="18"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N52" s="43">
+        <f t="shared" si="18"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O52" s="43">
         <f t="shared" si="12"/>
-        <v>0.94166040230902204</v>
-      </c>
-      <c r="F52" s="43">
-        <f t="shared" si="12"/>
-        <v>0.94166040230902204</v>
-      </c>
-      <c r="G52" s="43">
-        <f t="shared" si="12"/>
-        <v>0.94166040230902204</v>
-      </c>
-      <c r="H52" s="43">
-        <f t="shared" si="12"/>
-        <v>0.94166040230902204</v>
-      </c>
-      <c r="I52" s="43">
-        <f t="shared" si="13"/>
-        <v>0.87138156437019998</v>
-      </c>
-      <c r="J52" s="43">
-        <f t="shared" si="14"/>
-        <v>0.86927271702207298</v>
-      </c>
-      <c r="K52" s="43">
-        <f t="shared" si="15"/>
-        <v>0.81809329894973004</v>
-      </c>
-      <c r="L52" s="43">
-        <f t="shared" si="16"/>
-        <v>0.89771421948548102</v>
-      </c>
-      <c r="M52" s="43">
-        <f t="shared" si="17"/>
-        <v>0.95978881465296295</v>
-      </c>
-      <c r="N52" s="43">
-        <f t="shared" si="17"/>
-        <v>0.95978881465296295</v>
-      </c>
-      <c r="O52" s="43">
-        <f t="shared" si="11"/>
         <v>0.95978881465296295</v>
       </c>
       <c r="P52" s="43"/>
@@ -42212,9 +42212,9 @@
       <c r="T52" s="43"/>
       <c r="U52" s="44"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B53" t="s">
         <v>672</v>
@@ -42265,9 +42265,9 @@
       <c r="T53" s="43"/>
       <c r="U53" s="44"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="36" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B54" t="s">
         <v>673</v>
@@ -42345,13 +42345,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81385F75-A4F4-41FF-A29B-BF50C95E7112}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>exio_usa!B35</f>
         <v>USA</v>
@@ -42366,7 +42366,7 @@
       </c>
       <c r="E1" t="str">
         <f>exio_usa!F35</f>
-        <v>Other buildungs</v>
+        <v>Other buildings</v>
       </c>
       <c r="F1" t="str">
         <f>exio_usa!G35</f>
@@ -42429,7 +42429,7 @@
         <v>Services</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="str">
         <f>exio_usa!B36</f>
         <v>321100</v>
@@ -42511,7 +42511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="str">
         <f>exio_usa!B37</f>
         <v>321200</v>
@@ -42593,7 +42593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="str">
         <f>exio_usa!B38</f>
         <v>321910</v>
@@ -42675,7 +42675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="str">
         <f>exio_usa!B39</f>
         <v>3219A0</v>
@@ -42757,7 +42757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="str">
         <f>exio_usa!B40</f>
         <v>327200</v>
@@ -42839,7 +42839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="str">
         <f>exio_usa!B41</f>
         <v>331110</v>
@@ -42921,7 +42921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="str">
         <f>exio_usa!B42</f>
         <v>331200</v>
@@ -43003,7 +43003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="str">
         <f>exio_usa!B43</f>
         <v>331313</v>
@@ -43085,7 +43085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="str">
         <f>exio_usa!B44</f>
         <v>33131B</v>
@@ -43167,7 +43167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="str">
         <f>exio_usa!B45</f>
         <v>331410</v>
@@ -43249,7 +43249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="str">
         <f>exio_usa!B46</f>
         <v>331420</v>
@@ -43331,7 +43331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="str">
         <f>exio_usa!B47</f>
         <v>331490</v>
@@ -43413,7 +43413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="str">
         <f>exio_usa!B48</f>
         <v>331510</v>
@@ -43495,7 +43495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="str">
         <f>exio_usa!B49</f>
         <v>331520</v>
@@ -43577,7 +43577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="str">
         <f>exio_usa!B50</f>
         <v>332114</v>
@@ -43659,7 +43659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="str">
         <f>exio_usa!B51</f>
         <v>33211A</v>
@@ -43741,7 +43741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="str">
         <f>exio_usa!B52</f>
         <v>332119</v>
@@ -43823,7 +43823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="str">
         <f>exio_usa!B53</f>
         <v>325211</v>
@@ -43905,7 +43905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="str">
         <f>exio_usa!B54</f>
         <v>3252A0</v>
